--- a/src/test/resources/AddCus.xlsx
+++ b/src/test/resources/AddCus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\TestAuto\Hai_Pratice\BaiTapLon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\TestAuto\BTL\BTL\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF40851-2D5E-41A0-AFC6-55D07EB5814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0EB364-A0D3-4023-842A-DEEC512E5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="408" windowWidth="23040" windowHeight="10800" xr2:uid="{2ED1E3F4-B823-42C4-8BA0-E79BE154D17C}"/>
+    <workbookView xWindow="240" yWindow="408" windowWidth="23040" windowHeight="10800" xr2:uid="{2ED1E3F4-B823-42C4-8BA0-E79BE154D17C}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>First Name</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Reset All Field</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5D79B8-F164-4D6A-8C6C-830287F1B498}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,9 +606,10 @@
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,9 +631,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -645,8 +657,11 @@
       <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -668,8 +683,11 @@
       <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -691,8 +709,11 @@
       <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -711,8 +732,11 @@
       <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -734,8 +758,11 @@
       <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -757,8 +784,11 @@
       <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -777,8 +807,11 @@
       <c r="G8" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -800,8 +833,11 @@
       <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -821,7 +857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -844,7 +880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -864,7 +900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -887,7 +923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -910,7 +946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -933,7 +969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/src/test/resources/AddCus.xlsx
+++ b/src/test/resources/AddCus.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\TestAuto\BTL\BTL\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0EB364-A0D3-4023-842A-DEEC512E5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD46067-049F-42B4-870B-C5996623E8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="408" windowWidth="23040" windowHeight="10800" xr2:uid="{2ED1E3F4-B823-42C4-8BA0-E79BE154D17C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CBB15E04-0334-4C15-AEB9-B6C9040310EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="Fail_AddCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="Success_AddCustomer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,14 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>TC_ID</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -45,173 +49,206 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>Test case name</t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>AddCus_01</t>
   </si>
   <si>
+    <t>Empty First Name</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>tnhai@gmail.com</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
     <t>AddCus_02</t>
   </si>
   <si>
+    <t>Input special character</t>
+  </si>
+  <si>
+    <t>#hai</t>
+  </si>
+  <si>
+    <t>0123456790</t>
+  </si>
+  <si>
     <t>AddCus_03</t>
   </si>
   <si>
+    <t xml:space="preserve">Input numeric </t>
+  </si>
+  <si>
+    <t>123hai</t>
+  </si>
+  <si>
+    <t>0123456791</t>
+  </si>
+  <si>
     <t>AddCus_04</t>
   </si>
   <si>
+    <t>Empty Last Name</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>0123456792</t>
+  </si>
+  <si>
     <t>AddCus_05</t>
   </si>
   <si>
+    <t>#tran</t>
+  </si>
+  <si>
+    <t>0123456793</t>
+  </si>
+  <si>
     <t>AddCus_06</t>
   </si>
   <si>
+    <t>123tran</t>
+  </si>
+  <si>
+    <t>0123456794</t>
+  </si>
+  <si>
     <t>AddCus_07</t>
   </si>
   <si>
+    <t>Empty Email</t>
+  </si>
+  <si>
+    <t>0123456795</t>
+  </si>
+  <si>
     <t>AddCus_08</t>
   </si>
   <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>0123456796</t>
+  </si>
+  <si>
     <t>AddCus_09</t>
   </si>
   <si>
+    <t>Empty Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhai@gmail.com </t>
+  </si>
+  <si>
+    <t>0123456797</t>
+  </si>
+  <si>
     <t>AddCus_10</t>
   </si>
   <si>
+    <t>hanoi##</t>
+  </si>
+  <si>
+    <t>0123456798</t>
+  </si>
+  <si>
     <t>AddCus_11</t>
   </si>
   <si>
+    <t>Empty Mobile Number</t>
+  </si>
+  <si>
     <t>AddCus_12</t>
   </si>
   <si>
+    <t>Input normal character</t>
+  </si>
+  <si>
+    <t>012ad</t>
+  </si>
+  <si>
     <t>AddCus_13</t>
   </si>
   <si>
+    <t>012##</t>
+  </si>
+  <si>
     <t>AddCus_14</t>
   </si>
   <si>
-    <t>AddCus_15</t>
-  </si>
-  <si>
-    <t>AddCus_16</t>
-  </si>
-  <si>
-    <t>Empty First Name</t>
-  </si>
-  <si>
-    <t>Empty Last Name</t>
-  </si>
-  <si>
-    <t>Empty Email</t>
-  </si>
-  <si>
-    <t>Invalid Email</t>
-  </si>
-  <si>
-    <t>Empty Address</t>
-  </si>
-  <si>
-    <t>Input special character</t>
-  </si>
-  <si>
-    <t>Empty Mobile Number</t>
-  </si>
-  <si>
-    <t>Input normal character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input numeric </t>
-  </si>
-  <si>
     <t>Full Information Field</t>
   </si>
   <si>
-    <t>Empty All Text Field</t>
-  </si>
-  <si>
-    <t>#hai</t>
-  </si>
-  <si>
-    <t>123hai</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Tran</t>
-  </si>
-  <si>
-    <t>#tran</t>
-  </si>
-  <si>
-    <t>123tran</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>tnhai@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhai@gmail.com </t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
-    <t>hanoi##</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>0123456790</t>
-  </si>
-  <si>
-    <t>0123456791</t>
-  </si>
-  <si>
-    <t>0123456792</t>
-  </si>
-  <si>
-    <t>0123456793</t>
-  </si>
-  <si>
-    <t>0123456794</t>
-  </si>
-  <si>
-    <t>0123456795</t>
-  </si>
-  <si>
-    <t>0123456796</t>
-  </si>
-  <si>
-    <t>0123456797</t>
-  </si>
-  <si>
-    <t>0123456798</t>
-  </si>
-  <si>
-    <t>012ad</t>
-  </si>
-  <si>
-    <t>012##</t>
-  </si>
-  <si>
-    <t>Reset All Field</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>xPath</t>
+  </si>
+  <si>
+    <t>Customer name must not be blank</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Numbers are not allowed</t>
+  </si>
+  <si>
+    <t>Email-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Email-ID is not valid</t>
+  </si>
+  <si>
+    <t>Address Field must not be blank</t>
+  </si>
+  <si>
+    <t>Mobile no must not be blank</t>
+  </si>
+  <si>
+    <t>Characters are not allowed</t>
+  </si>
+  <si>
+    <t>//label[@id='message']</t>
+  </si>
+  <si>
+    <t>//label[@id='message50']</t>
+  </si>
+  <si>
+    <t>//label[@id='message9']</t>
+  </si>
+  <si>
+    <t>//label[@id='message3']</t>
+  </si>
+  <si>
+    <t>//label[@id='message7']</t>
+  </si>
+  <si>
+    <t>Access Details to Guru99 Telecom</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(),'Access Details to Guru99 Telecom')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +260,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,14 +298,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -590,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5D79B8-F164-4D6A-8C6C-830287F1B498}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5739F04-F497-44C9-B0AA-C842EEF32983}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,408 +638,494 @@
     <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7:E14" r:id="rId1" display="tnhai@gmail.com" xr:uid="{F60368B7-1D3C-47ED-95ED-E0854ECBC6BF}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{5FA79A4D-FD28-4CB4-B577-AB45D98491BC}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{43319AC7-81A4-4721-A65A-B4ED57154E87}"/>
+    <hyperlink ref="E11:E14" r:id="rId4" display="tnhai@gmail.com " xr:uid="{F72ED2ED-C2AC-448A-B8A2-4AD53B40C0A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80231FAC-FF19-4019-BCFC-E0CCB7CF954A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="51.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{349810DE-BDF7-465C-B668-80A312D97292}"/>
-    <hyperlink ref="E3:E7" r:id="rId2" display="tnhai@gmail.com" xr:uid="{42A0A7C6-FB0B-4654-BE99-03AAA1DE522B}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{5E9DF09E-919A-449A-8174-0FFD2AEACBF6}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{8D4D8129-6328-4B4E-B5C1-B4CE2A38CB47}"/>
-    <hyperlink ref="E11:E15" r:id="rId5" display="tnhai@gmail.com " xr:uid="{7D812633-6C00-4129-8BDC-50901E2802C1}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{852BDB1C-1D11-44B3-8621-D21AEE09B11E}"/>
+    <hyperlink ref="E2" r:id="rId1" display="tnhai@gmail.com" xr:uid="{C8556BA0-E140-4135-A089-6A68F92DFD21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
